--- a/Data Mart/Dados/OperationalDB_USA/OrderDetails.xlsx
+++ b/Data Mart/Dados/OperationalDB_USA/OrderDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\ARMDD-Projeto\Data Mart\Dados\OperationalDB_USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afons\Desktop\uni\ARMDD\ARMDD-Projeto\Data Mart\Dados\OperationalDB_USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B885A0-6911-4BCC-821F-75CE3F527518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714AAB73-17FF-4B74-A5DF-1D1EB86A3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{770E1D8D-3B7D-45DD-ADAC-4B478A13BEA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{770E1D8D-3B7D-45DD-ADAC-4B478A13BEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetails" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>OrderID</t>
   </si>
@@ -36,33 +36,12 @@
   <si>
     <t>Discount</t>
   </si>
-  <si>
-    <t>0,20000000000000001</t>
-  </si>
-  <si>
-    <t>0,14999999999999999</t>
-  </si>
-  <si>
-    <t>0,10000000000000001</t>
-  </si>
-  <si>
-    <t>5,0000000000000003E-2</t>
-  </si>
-  <si>
-    <t>2,9999999999999999E-2</t>
-  </si>
-  <si>
-    <t>4,0000000000000001E-2</t>
-  </si>
-  <si>
-    <t>5,9999999999999998E-2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +172,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,53 +526,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,7 +589,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -917,11 +905,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE43526-E7D0-453E-AAA8-582D049F5A1F}">
-  <dimension ref="A1:E660"/>
+  <dimension ref="A1:I660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1038,8 +1031,8 @@
       <c r="D7">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
+      <c r="E7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1212,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1228,8 +1221,10 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1263,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1280,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1293,11 +1288,11 @@
       <c r="D22">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1314,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1327,11 +1322,11 @@
       <c r="D24">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1365,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1382,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1399,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1412,11 +1407,11 @@
       <c r="D29">
         <v>20</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1429,11 +1424,11 @@
       <c r="D30">
         <v>24</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11</v>
       </c>
@@ -1446,11 +1441,11 @@
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12</v>
       </c>
@@ -1718,8 +1713,8 @@
       <c r="D47">
         <v>40</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
+      <c r="E47">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1735,8 +1730,8 @@
       <c r="D48">
         <v>30</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>7</v>
+      <c r="E48">
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1752,8 +1747,8 @@
       <c r="D49">
         <v>25</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>7</v>
+      <c r="E49">
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,8 +1866,8 @@
       <c r="D56">
         <v>50</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>6</v>
+      <c r="E56">
+        <v>0.15</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,8 +1883,8 @@
       <c r="D57">
         <v>25</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>6</v>
+      <c r="E57">
+        <v>0.15</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1905,8 +1900,8 @@
       <c r="D58">
         <v>40</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>5</v>
+      <c r="E58">
+        <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,8 +1917,8 @@
       <c r="D59">
         <v>10</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>5</v>
+      <c r="E59">
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,8 +1934,8 @@
       <c r="D60">
         <v>16</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
+      <c r="E60">
+        <v>0.2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,8 +1968,8 @@
       <c r="D62">
         <v>70</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
+      <c r="E62" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2007,8 +2002,8 @@
       <c r="D64">
         <v>36</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>7</v>
+      <c r="E64">
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2058,8 +2053,8 @@
       <c r="D67">
         <v>20</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
+      <c r="E67">
+        <v>0.15</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2143,8 +2138,8 @@
       <c r="D72">
         <v>30</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>5</v>
+      <c r="E72">
+        <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2177,8 +2172,8 @@
       <c r="D74">
         <v>8</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>5</v>
+      <c r="E74">
+        <v>0.2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2347,8 +2342,8 @@
       <c r="D84">
         <v>42</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>8</v>
+      <c r="E84" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2364,8 +2359,8 @@
       <c r="D85">
         <v>20</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>6</v>
+      <c r="E85">
+        <v>0.15</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2381,8 +2376,8 @@
       <c r="D86">
         <v>20</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>6</v>
+      <c r="E86">
+        <v>0.15</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2398,8 +2393,8 @@
       <c r="D87">
         <v>8</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>7</v>
+      <c r="E87">
+        <v>0.1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2415,8 +2410,8 @@
       <c r="D88">
         <v>16</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>7</v>
+      <c r="E88">
+        <v>0.1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2432,8 +2427,8 @@
       <c r="D89">
         <v>20</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>7</v>
+      <c r="E89">
+        <v>0.1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2517,8 +2512,8 @@
       <c r="D94">
         <v>10</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>5</v>
+      <c r="E94">
+        <v>0.2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2534,8 +2529,8 @@
       <c r="D95">
         <v>20</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>5</v>
+      <c r="E95">
+        <v>0.2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2551,8 +2546,8 @@
       <c r="D96">
         <v>8</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>5</v>
+      <c r="E96">
+        <v>0.2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2568,8 +2563,8 @@
       <c r="D97">
         <v>15</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>5</v>
+      <c r="E97">
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2585,8 +2580,8 @@
       <c r="D98">
         <v>20</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>5</v>
+      <c r="E98">
+        <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2721,8 +2716,8 @@
       <c r="D106">
         <v>28</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>7</v>
+      <c r="E106">
+        <v>0.1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2738,8 +2733,8 @@
       <c r="D107">
         <v>70</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>7</v>
+      <c r="E107">
+        <v>0.1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2789,8 +2784,8 @@
       <c r="D110">
         <v>120</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>7</v>
+      <c r="E110">
+        <v>0.1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3010,8 +3005,8 @@
       <c r="D123">
         <v>18</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>8</v>
+      <c r="E123" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3078,8 +3073,8 @@
       <c r="D127">
         <v>20</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>7</v>
+      <c r="E127">
+        <v>0.1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3095,8 +3090,8 @@
       <c r="D128">
         <v>2</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>7</v>
+      <c r="E128">
+        <v>0.1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3112,8 +3107,8 @@
       <c r="D129">
         <v>8</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>7</v>
+      <c r="E129">
+        <v>0.1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3129,8 +3124,8 @@
       <c r="D130">
         <v>20</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>7</v>
+      <c r="E130">
+        <v>0.1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3146,8 +3141,8 @@
       <c r="D131">
         <v>4</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>6</v>
+      <c r="E131">
+        <v>0.15</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3180,8 +3175,8 @@
       <c r="D133">
         <v>15</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>6</v>
+      <c r="E133">
+        <v>0.15</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3197,8 +3192,8 @@
       <c r="D134">
         <v>10</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>6</v>
+      <c r="E134">
+        <v>0.15</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3435,8 +3430,8 @@
       <c r="D148">
         <v>100</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>8</v>
+      <c r="E148" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3452,8 +3447,8 @@
       <c r="D149">
         <v>15</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>7</v>
+      <c r="E149">
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3469,8 +3464,8 @@
       <c r="D150">
         <v>25</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>7</v>
+      <c r="E150">
+        <v>0.1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3571,8 +3566,8 @@
       <c r="D156">
         <v>40</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>6</v>
+      <c r="E156">
+        <v>0.15</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3588,8 +3583,8 @@
       <c r="D157">
         <v>35</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>6</v>
+      <c r="E157">
+        <v>0.15</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3605,8 +3600,8 @@
       <c r="D158">
         <v>2</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>6</v>
+      <c r="E158">
+        <v>0.15</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3656,8 +3651,8 @@
       <c r="D161">
         <v>80</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>8</v>
+      <c r="E161" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3724,8 +3719,8 @@
       <c r="D165">
         <v>2</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>8</v>
+      <c r="E165" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4030,8 +4025,8 @@
       <c r="D183">
         <v>15</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>6</v>
+      <c r="E183">
+        <v>0.15</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4047,8 +4042,8 @@
       <c r="D184">
         <v>7</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>6</v>
+      <c r="E184">
+        <v>0.15</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4064,8 +4059,8 @@
       <c r="D185">
         <v>60</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>8</v>
+      <c r="E185" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4081,8 +4076,8 @@
       <c r="D186">
         <v>20</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>8</v>
+      <c r="E186" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4285,8 +4280,8 @@
       <c r="D198">
         <v>36</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>7</v>
+      <c r="E198">
+        <v>0.1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4421,8 +4416,8 @@
       <c r="D206">
         <v>8</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>5</v>
+      <c r="E206">
+        <v>0.2</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -4523,8 +4518,8 @@
       <c r="D212">
         <v>35</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>7</v>
+      <c r="E212">
+        <v>0.1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -4540,8 +4535,8 @@
       <c r="D213">
         <v>4</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>7</v>
+      <c r="E213">
+        <v>0.1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -4557,8 +4552,8 @@
       <c r="D214">
         <v>36</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>7</v>
+      <c r="E214">
+        <v>0.1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4574,8 +4569,8 @@
       <c r="D215">
         <v>9</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>7</v>
+      <c r="E215">
+        <v>0.1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4591,8 +4586,8 @@
       <c r="D216">
         <v>30</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>6</v>
+      <c r="E216">
+        <v>0.15</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -4608,8 +4603,8 @@
       <c r="D217">
         <v>70</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>6</v>
+      <c r="E217">
+        <v>0.15</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -4642,8 +4637,8 @@
       <c r="D219">
         <v>24</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>6</v>
+      <c r="E219">
+        <v>0.15</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4710,8 +4705,8 @@
       <c r="D223">
         <v>30</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>5</v>
+      <c r="E223">
+        <v>0.2</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4727,8 +4722,8 @@
       <c r="D224">
         <v>35</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>5</v>
+      <c r="E224">
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4744,8 +4739,8 @@
       <c r="D225">
         <v>18</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>5</v>
+      <c r="E225">
+        <v>0.2</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -4761,8 +4756,8 @@
       <c r="D226">
         <v>20</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>5</v>
+      <c r="E226">
+        <v>0.2</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -4778,8 +4773,8 @@
       <c r="D227">
         <v>40</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>5</v>
+      <c r="E227">
+        <v>0.2</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -4914,8 +4909,8 @@
       <c r="D235">
         <v>25</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>7</v>
+      <c r="E235">
+        <v>0.1</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -4931,8 +4926,8 @@
       <c r="D236">
         <v>18</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>7</v>
+      <c r="E236">
+        <v>0.1</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -4948,8 +4943,8 @@
       <c r="D237">
         <v>15</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>8</v>
+      <c r="E237" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -4965,8 +4960,8 @@
       <c r="D238">
         <v>60</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>8</v>
+      <c r="E238" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -5067,8 +5062,8 @@
       <c r="D244">
         <v>50</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>5</v>
+      <c r="E244">
+        <v>0.2</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -5152,8 +5147,8 @@
       <c r="D249">
         <v>5</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>5</v>
+      <c r="E249">
+        <v>0.2</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -5169,8 +5164,8 @@
       <c r="D250">
         <v>24</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>5</v>
+      <c r="E250">
+        <v>0.2</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -5186,8 +5181,8 @@
       <c r="D251">
         <v>30</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>5</v>
+      <c r="E251">
+        <v>0.2</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -5271,8 +5266,8 @@
       <c r="D256">
         <v>25</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>8</v>
+      <c r="E256" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -5288,8 +5283,8 @@
       <c r="D257">
         <v>6</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>7</v>
+      <c r="E257">
+        <v>0.1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -5305,8 +5300,8 @@
       <c r="D258">
         <v>10</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>7</v>
+      <c r="E258">
+        <v>0.1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -5322,8 +5317,8 @@
       <c r="D259">
         <v>30</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>8</v>
+      <c r="E259" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -5339,8 +5334,8 @@
       <c r="D260">
         <v>20</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>8</v>
+      <c r="E260" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -5356,8 +5351,8 @@
       <c r="D261">
         <v>70</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>8</v>
+      <c r="E261" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -5373,8 +5368,8 @@
       <c r="D262">
         <v>15</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>8</v>
+      <c r="E262" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -5526,8 +5521,8 @@
       <c r="D271">
         <v>15</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>8</v>
+      <c r="E271" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -5560,8 +5555,8 @@
       <c r="D273">
         <v>15</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>8</v>
+      <c r="E273" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5577,8 +5572,8 @@
       <c r="D274">
         <v>15</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>8</v>
+      <c r="E274" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5781,8 +5776,8 @@
       <c r="D286">
         <v>35</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>6</v>
+      <c r="E286">
+        <v>0.15</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -5815,8 +5810,8 @@
       <c r="D288">
         <v>25</v>
       </c>
-      <c r="E288" s="1" t="s">
-        <v>8</v>
+      <c r="E288" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -5832,8 +5827,8 @@
       <c r="D289">
         <v>60</v>
       </c>
-      <c r="E289" s="1" t="s">
-        <v>8</v>
+      <c r="E289" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -5900,8 +5895,8 @@
       <c r="D293">
         <v>4</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>7</v>
+      <c r="E293">
+        <v>0.1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -5934,8 +5929,8 @@
       <c r="D295">
         <v>21</v>
       </c>
-      <c r="E295" s="1" t="s">
-        <v>7</v>
+      <c r="E295">
+        <v>0.1</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -5951,8 +5946,8 @@
       <c r="D296">
         <v>3</v>
       </c>
-      <c r="E296" s="1" t="s">
-        <v>7</v>
+      <c r="E296">
+        <v>0.1</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -5968,8 +5963,8 @@
       <c r="D297">
         <v>28</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>7</v>
+      <c r="E297">
+        <v>0.1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5985,8 +5980,8 @@
       <c r="D298">
         <v>6</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>7</v>
+      <c r="E298">
+        <v>0.1</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -6138,8 +6133,8 @@
       <c r="D307">
         <v>24</v>
       </c>
-      <c r="E307" s="1" t="s">
-        <v>6</v>
+      <c r="E307">
+        <v>0.15</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6155,8 +6150,8 @@
       <c r="D308">
         <v>12</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>6</v>
+      <c r="E308">
+        <v>0.15</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -6172,8 +6167,8 @@
       <c r="D309">
         <v>15</v>
       </c>
-      <c r="E309" s="1" t="s">
-        <v>6</v>
+      <c r="E309">
+        <v>0.15</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -6291,8 +6286,8 @@
       <c r="D316">
         <v>30</v>
       </c>
-      <c r="E316" s="1" t="s">
-        <v>6</v>
+      <c r="E316">
+        <v>0.15</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -6308,8 +6303,8 @@
       <c r="D317">
         <v>8</v>
       </c>
-      <c r="E317" s="1" t="s">
-        <v>6</v>
+      <c r="E317">
+        <v>0.15</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -6325,8 +6320,8 @@
       <c r="D318">
         <v>30</v>
       </c>
-      <c r="E318" s="1" t="s">
-        <v>7</v>
+      <c r="E318">
+        <v>0.1</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -6342,8 +6337,8 @@
       <c r="D319">
         <v>12</v>
       </c>
-      <c r="E319" s="1" t="s">
-        <v>7</v>
+      <c r="E319">
+        <v>0.1</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -6478,8 +6473,8 @@
       <c r="D327">
         <v>60</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>6</v>
+      <c r="E327">
+        <v>0.15</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -6495,8 +6490,8 @@
       <c r="D328">
         <v>30</v>
       </c>
-      <c r="E328" s="1" t="s">
-        <v>6</v>
+      <c r="E328">
+        <v>0.15</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -6512,8 +6507,8 @@
       <c r="D329">
         <v>15</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>6</v>
+      <c r="E329">
+        <v>0.15</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -6631,8 +6626,8 @@
       <c r="D336">
         <v>5</v>
       </c>
-      <c r="E336" s="1" t="s">
-        <v>5</v>
+      <c r="E336">
+        <v>0.2</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6648,8 +6643,8 @@
       <c r="D337">
         <v>12</v>
       </c>
-      <c r="E337" s="1" t="s">
-        <v>5</v>
+      <c r="E337">
+        <v>0.2</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -6665,8 +6660,8 @@
       <c r="D338">
         <v>40</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>5</v>
+      <c r="E338">
+        <v>0.2</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6682,8 +6677,8 @@
       <c r="D339">
         <v>60</v>
       </c>
-      <c r="E339" s="1" t="s">
-        <v>5</v>
+      <c r="E339">
+        <v>0.2</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -7209,8 +7204,8 @@
       <c r="D370">
         <v>20</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>7</v>
+      <c r="E370">
+        <v>0.1</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -7226,8 +7221,8 @@
       <c r="D371">
         <v>2</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>7</v>
+      <c r="E371">
+        <v>0.1</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -7311,8 +7306,8 @@
       <c r="D376">
         <v>28</v>
       </c>
-      <c r="E376" s="1" t="s">
-        <v>8</v>
+      <c r="E376" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -7413,8 +7408,8 @@
       <c r="D382">
         <v>21</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>5</v>
+      <c r="E382">
+        <v>0.2</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -7430,8 +7425,8 @@
       <c r="D383">
         <v>20</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>5</v>
+      <c r="E383">
+        <v>0.2</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -7447,8 +7442,8 @@
       <c r="D384">
         <v>6</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>5</v>
+      <c r="E384">
+        <v>0.2</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -7464,8 +7459,8 @@
       <c r="D385">
         <v>20</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>5</v>
+      <c r="E385">
+        <v>0.2</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -7719,8 +7714,8 @@
       <c r="D400">
         <v>30</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>5</v>
+      <c r="E400">
+        <v>0.2</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -7736,8 +7731,8 @@
       <c r="D401">
         <v>15</v>
       </c>
-      <c r="E401" s="1" t="s">
-        <v>5</v>
+      <c r="E401">
+        <v>0.2</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -7753,8 +7748,8 @@
       <c r="D402">
         <v>42</v>
       </c>
-      <c r="E402" s="1" t="s">
-        <v>5</v>
+      <c r="E402">
+        <v>0.2</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -7770,8 +7765,8 @@
       <c r="D403">
         <v>3</v>
       </c>
-      <c r="E403" s="1" t="s">
-        <v>6</v>
+      <c r="E403">
+        <v>0.15</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -7787,8 +7782,8 @@
       <c r="D404">
         <v>20</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>6</v>
+      <c r="E404">
+        <v>0.15</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -7889,8 +7884,8 @@
       <c r="D410">
         <v>15</v>
       </c>
-      <c r="E410" s="1" t="s">
-        <v>5</v>
+      <c r="E410">
+        <v>0.2</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -7906,8 +7901,8 @@
       <c r="D411">
         <v>6</v>
       </c>
-      <c r="E411" s="1" t="s">
-        <v>5</v>
+      <c r="E411">
+        <v>0.2</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -7923,8 +7918,8 @@
       <c r="D412">
         <v>21</v>
       </c>
-      <c r="E412" s="1" t="s">
-        <v>5</v>
+      <c r="E412">
+        <v>0.2</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -7957,8 +7952,8 @@
       <c r="D414">
         <v>35</v>
       </c>
-      <c r="E414" s="1" t="s">
-        <v>5</v>
+      <c r="E414">
+        <v>0.2</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -7974,8 +7969,8 @@
       <c r="D415">
         <v>24</v>
       </c>
-      <c r="E415" s="1" t="s">
-        <v>5</v>
+      <c r="E415">
+        <v>0.2</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -8025,8 +8020,8 @@
       <c r="D418">
         <v>50</v>
       </c>
-      <c r="E418" s="1" t="s">
-        <v>7</v>
+      <c r="E418">
+        <v>0.1</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -8042,8 +8037,8 @@
       <c r="D419">
         <v>10</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>7</v>
+      <c r="E419">
+        <v>0.1</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -8059,8 +8054,8 @@
       <c r="D420">
         <v>7</v>
       </c>
-      <c r="E420" s="1" t="s">
-        <v>7</v>
+      <c r="E420">
+        <v>0.1</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -8110,8 +8105,8 @@
       <c r="D423">
         <v>4</v>
       </c>
-      <c r="E423" s="1" t="s">
-        <v>6</v>
+      <c r="E423">
+        <v>0.15</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -8263,8 +8258,8 @@
       <c r="D432">
         <v>12</v>
       </c>
-      <c r="E432" s="1" t="s">
-        <v>5</v>
+      <c r="E432">
+        <v>0.2</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -8433,8 +8428,8 @@
       <c r="D442">
         <v>8</v>
       </c>
-      <c r="E442" s="1" t="s">
-        <v>8</v>
+      <c r="E442" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -8450,8 +8445,8 @@
       <c r="D443">
         <v>20</v>
       </c>
-      <c r="E443" s="1" t="s">
-        <v>8</v>
+      <c r="E443" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -8518,8 +8513,8 @@
       <c r="D447">
         <v>30</v>
       </c>
-      <c r="E447" s="1" t="s">
-        <v>7</v>
+      <c r="E447">
+        <v>0.1</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -8535,8 +8530,8 @@
       <c r="D448">
         <v>15</v>
       </c>
-      <c r="E448" s="1" t="s">
-        <v>7</v>
+      <c r="E448">
+        <v>0.1</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -8943,8 +8938,8 @@
       <c r="D472">
         <v>28</v>
       </c>
-      <c r="E472" s="1" t="s">
-        <v>8</v>
+      <c r="E472" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -8960,8 +8955,8 @@
       <c r="D473">
         <v>50</v>
       </c>
-      <c r="E473" s="1" t="s">
-        <v>8</v>
+      <c r="E473" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -8977,8 +8972,8 @@
       <c r="D474">
         <v>120</v>
       </c>
-      <c r="E474" s="1" t="s">
-        <v>8</v>
+      <c r="E474" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -9317,8 +9312,8 @@
       <c r="D494">
         <v>25</v>
       </c>
-      <c r="E494" s="1" t="s">
-        <v>6</v>
+      <c r="E494">
+        <v>0.15</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -9334,8 +9329,8 @@
       <c r="D495">
         <v>12</v>
       </c>
-      <c r="E495" s="1" t="s">
-        <v>6</v>
+      <c r="E495">
+        <v>0.15</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -9385,8 +9380,8 @@
       <c r="D498">
         <v>30</v>
       </c>
-      <c r="E498" s="1" t="s">
-        <v>5</v>
+      <c r="E498">
+        <v>0.2</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -9589,8 +9584,8 @@
       <c r="D510">
         <v>20</v>
       </c>
-      <c r="E510" s="1" t="s">
-        <v>6</v>
+      <c r="E510">
+        <v>0.15</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -9640,8 +9635,8 @@
       <c r="D513">
         <v>6</v>
       </c>
-      <c r="E513" s="1" t="s">
-        <v>8</v>
+      <c r="E513" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -9861,8 +9856,8 @@
       <c r="D526">
         <v>84</v>
       </c>
-      <c r="E526" s="1" t="s">
-        <v>6</v>
+      <c r="E526">
+        <v>0.15</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -10082,8 +10077,8 @@
       <c r="D539">
         <v>40</v>
       </c>
-      <c r="E539" s="1" t="s">
-        <v>7</v>
+      <c r="E539">
+        <v>0.1</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -10541,8 +10536,8 @@
       <c r="D566">
         <v>28</v>
       </c>
-      <c r="E566" s="1" t="s">
-        <v>7</v>
+      <c r="E566">
+        <v>0.1</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
@@ -10864,8 +10859,8 @@
       <c r="D585">
         <v>5</v>
       </c>
-      <c r="E585" s="1" t="s">
-        <v>5</v>
+      <c r="E585">
+        <v>0.2</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
@@ -11051,8 +11046,8 @@
       <c r="D596">
         <v>10</v>
       </c>
-      <c r="E596" s="1" t="s">
-        <v>5</v>
+      <c r="E596">
+        <v>0.2</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
@@ -11068,8 +11063,8 @@
       <c r="D597">
         <v>4</v>
       </c>
-      <c r="E597" s="1" t="s">
-        <v>5</v>
+      <c r="E597">
+        <v>0.2</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
@@ -11085,8 +11080,8 @@
       <c r="D598">
         <v>30</v>
       </c>
-      <c r="E598" s="1" t="s">
-        <v>5</v>
+      <c r="E598">
+        <v>0.2</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
@@ -11102,8 +11097,8 @@
       <c r="D599">
         <v>10</v>
       </c>
-      <c r="E599" s="1" t="s">
-        <v>5</v>
+      <c r="E599">
+        <v>0.2</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
@@ -11272,8 +11267,8 @@
       <c r="D609">
         <v>77</v>
       </c>
-      <c r="E609" s="1" t="s">
-        <v>7</v>
+      <c r="E609">
+        <v>0.1</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -11306,8 +11301,8 @@
       <c r="D611">
         <v>25</v>
       </c>
-      <c r="E611" s="1" t="s">
-        <v>7</v>
+      <c r="E611">
+        <v>0.1</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
@@ -11323,8 +11318,8 @@
       <c r="D612">
         <v>4</v>
       </c>
-      <c r="E612" s="1" t="s">
-        <v>7</v>
+      <c r="E612">
+        <v>0.1</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
@@ -11391,8 +11386,8 @@
       <c r="D616">
         <v>8</v>
       </c>
-      <c r="E616" s="1" t="s">
-        <v>6</v>
+      <c r="E616">
+        <v>0.15</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
@@ -11408,8 +11403,8 @@
       <c r="D617">
         <v>36</v>
       </c>
-      <c r="E617" s="1" t="s">
-        <v>6</v>
+      <c r="E617">
+        <v>0.15</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
@@ -11425,8 +11420,8 @@
       <c r="D618">
         <v>28</v>
       </c>
-      <c r="E618" s="1" t="s">
-        <v>6</v>
+      <c r="E618">
+        <v>0.15</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -11459,8 +11454,8 @@
       <c r="D620">
         <v>15</v>
       </c>
-      <c r="E620" s="1" t="s">
-        <v>8</v>
+      <c r="E620" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
@@ -11476,8 +11471,8 @@
       <c r="D621">
         <v>10</v>
       </c>
-      <c r="E621" s="1" t="s">
-        <v>8</v>
+      <c r="E621" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
@@ -11527,8 +11522,8 @@
       <c r="D624">
         <v>24</v>
       </c>
-      <c r="E624" s="1" t="s">
-        <v>5</v>
+      <c r="E624">
+        <v>0.2</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
@@ -11595,8 +11590,8 @@
       <c r="D628">
         <v>1</v>
       </c>
-      <c r="E628" s="1" t="s">
-        <v>8</v>
+      <c r="E628" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
@@ -11612,8 +11607,8 @@
       <c r="D629">
         <v>2</v>
       </c>
-      <c r="E629" s="1" t="s">
-        <v>7</v>
+      <c r="E629">
+        <v>0.1</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -11646,8 +11641,8 @@
       <c r="D631">
         <v>2</v>
       </c>
-      <c r="E631" s="1" t="s">
-        <v>8</v>
+      <c r="E631" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
@@ -11680,8 +11675,8 @@
       <c r="D633">
         <v>1</v>
       </c>
-      <c r="E633" s="1" t="s">
-        <v>9</v>
+      <c r="E633" s="2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
@@ -11697,8 +11692,8 @@
       <c r="D634">
         <v>2</v>
       </c>
-      <c r="E634" s="1" t="s">
-        <v>9</v>
+      <c r="E634" s="2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
@@ -11714,8 +11709,8 @@
       <c r="D635">
         <v>1</v>
       </c>
-      <c r="E635" s="1" t="s">
-        <v>10</v>
+      <c r="E635" s="2">
+        <v>0.04</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
@@ -11765,8 +11760,8 @@
       <c r="D638">
         <v>2</v>
       </c>
-      <c r="E638" s="1" t="s">
-        <v>8</v>
+      <c r="E638" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
@@ -11850,8 +11845,8 @@
       <c r="D643">
         <v>2</v>
       </c>
-      <c r="E643" s="1" t="s">
-        <v>11</v>
+      <c r="E643" s="2">
+        <v>0.06</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
@@ -11867,8 +11862,8 @@
       <c r="D644">
         <v>2</v>
       </c>
-      <c r="E644" s="1" t="s">
-        <v>9</v>
+      <c r="E644" s="2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
@@ -11952,8 +11947,8 @@
       <c r="D649">
         <v>5</v>
       </c>
-      <c r="E649" s="1" t="s">
-        <v>6</v>
+      <c r="E649">
+        <v>0.15</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
@@ -11969,8 +11964,8 @@
       <c r="D650">
         <v>10</v>
       </c>
-      <c r="E650" s="1" t="s">
-        <v>8</v>
+      <c r="E650" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
@@ -11986,8 +11981,8 @@
       <c r="D651">
         <v>20</v>
       </c>
-      <c r="E651" s="1" t="s">
-        <v>7</v>
+      <c r="E651">
+        <v>0.1</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
@@ -12003,8 +11998,8 @@
       <c r="D652">
         <v>15</v>
       </c>
-      <c r="E652" s="1" t="s">
-        <v>5</v>
+      <c r="E652">
+        <v>0.2</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
@@ -12037,8 +12032,8 @@
       <c r="D654">
         <v>10</v>
       </c>
-      <c r="E654" s="1" t="s">
-        <v>5</v>
+      <c r="E654">
+        <v>0.2</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
@@ -12054,8 +12049,8 @@
       <c r="D655">
         <v>8</v>
       </c>
-      <c r="E655" s="1" t="s">
-        <v>6</v>
+      <c r="E655">
+        <v>0.15</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
@@ -12088,8 +12083,8 @@
       <c r="D657">
         <v>10</v>
       </c>
-      <c r="E657" s="1" t="s">
-        <v>8</v>
+      <c r="E657" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
@@ -12105,8 +12100,8 @@
       <c r="D658">
         <v>15</v>
       </c>
-      <c r="E658" s="1" t="s">
-        <v>7</v>
+      <c r="E658">
+        <v>0.1</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.3">
@@ -12122,8 +12117,8 @@
       <c r="D659">
         <v>20</v>
       </c>
-      <c r="E659" s="1" t="s">
-        <v>6</v>
+      <c r="E659">
+        <v>0.15</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
@@ -12145,5 +12140,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>